--- a/www/terminologies/CodeSystem-terminologie-cisis.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-cisis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="3190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="3189">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>202510230000</t>
+    <t>202512170000</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:59:35-00:00</t>
+    <t>2025-12-17T14:37:59-00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -751,6 +751,18 @@
     <t>Autre risque</t>
   </si>
   <si>
+    <t>GEN-092.01.25</t>
+  </si>
+  <si>
+    <t>Autre exposition</t>
+  </si>
+  <si>
+    <t>GEN-092.01.26</t>
+  </si>
+  <si>
+    <t>Autre complication</t>
+  </si>
+  <si>
     <t>GEN-092.02.01</t>
   </si>
   <si>
@@ -4495,7 +4507,7 @@
     <t>MED-508</t>
   </si>
   <si>
-    <t>Toubles digestifs justifiant une sonde gastrique</t>
+    <t>Troubles digestifs justifiant une sonde gastrique</t>
   </si>
   <si>
     <t>MED-511</t>
@@ -8341,6 +8353,48 @@
     <t>Evaluation CIM11</t>
   </si>
   <si>
+    <t>MED-1330</t>
+  </si>
+  <si>
+    <t>Etat de conscience inconnu</t>
+  </si>
+  <si>
+    <t>MED-1331</t>
+  </si>
+  <si>
+    <t>allergie à une substance</t>
+  </si>
+  <si>
+    <t>MED-1332</t>
+  </si>
+  <si>
+    <t>hypersensibilité non allergique à une substance</t>
+  </si>
+  <si>
+    <t>MED-1333</t>
+  </si>
+  <si>
+    <t>intolérance à un agent environnemental</t>
+  </si>
+  <si>
+    <t>MED-1334</t>
+  </si>
+  <si>
+    <t>mésusage ou d’un usage détourné</t>
+  </si>
+  <si>
+    <t>MED-1335</t>
+  </si>
+  <si>
+    <t>Médicament augmentant l’INR</t>
+  </si>
+  <si>
+    <t>MED-1336</t>
+  </si>
+  <si>
+    <t>Médicament diminuant l’INR</t>
+  </si>
+  <si>
     <t>ORG-001</t>
   </si>
   <si>
@@ -8509,511 +8563,454 @@
     <t>Protocole de recherche</t>
   </si>
   <si>
-    <t>ORG-054</t>
+    <t>ORG-063</t>
+  </si>
+  <si>
+    <t>Acte ou intervention prévu ou à programmer</t>
+  </si>
+  <si>
+    <t>ORG-064</t>
+  </si>
+  <si>
+    <t>Demande d'examen ou de suivi</t>
+  </si>
+  <si>
+    <t>ORG-065</t>
+  </si>
+  <si>
+    <t>Suites à donner d'ordre médico-social</t>
+  </si>
+  <si>
+    <t>ORG-070</t>
+  </si>
+  <si>
+    <t>Modalité d'entrée</t>
+  </si>
+  <si>
+    <t>ORG-074</t>
+  </si>
+  <si>
+    <t>Modalité de sortie</t>
+  </si>
+  <si>
+    <t>ORG-075</t>
+  </si>
+  <si>
+    <t>Activité professionnelle</t>
+  </si>
+  <si>
+    <t>ORG-077</t>
+  </si>
+  <si>
+    <t>Hospitalisation (y compris à domicile)</t>
+  </si>
+  <si>
+    <t>ORG-079</t>
+  </si>
+  <si>
+    <t>Nombre total d'échographies</t>
+  </si>
+  <si>
+    <t>ORG-080</t>
+  </si>
+  <si>
+    <t>Echographie morphologique</t>
+  </si>
+  <si>
+    <t>ORG-081</t>
+  </si>
+  <si>
+    <t>Type de transfert</t>
+  </si>
+  <si>
+    <t>ORG-085</t>
+  </si>
+  <si>
+    <t>Demande de surveillance médicale particulière</t>
+  </si>
+  <si>
+    <t>ORG-086</t>
+  </si>
+  <si>
+    <t>Motif d'hospitalisation</t>
+  </si>
+  <si>
+    <t>ORG-087</t>
+  </si>
+  <si>
+    <t>Nombre d'hospitalisations</t>
+  </si>
+  <si>
+    <t>ORG-088</t>
+  </si>
+  <si>
+    <t>Nombre d'hospitalisations depuis le 9ème mois</t>
+  </si>
+  <si>
+    <t>ORG-089</t>
+  </si>
+  <si>
+    <t>Nombre d'hospitalisations après le 9ème mois</t>
+  </si>
+  <si>
+    <t>ORG-092</t>
+  </si>
+  <si>
+    <t>Nombre d'hospitalisations en période néonatale</t>
+  </si>
+  <si>
+    <t>ORG-094</t>
+  </si>
+  <si>
+    <t>Nombre d'hospitalisations après la période néonatale</t>
+  </si>
+  <si>
+    <t>ORG-095</t>
+  </si>
+  <si>
+    <t>Type morphologique</t>
+  </si>
+  <si>
+    <t>ORG-097</t>
+  </si>
+  <si>
+    <t>Correspondant</t>
+  </si>
+  <si>
+    <t>ORG-098</t>
+  </si>
+  <si>
+    <t>Lieu du transfert</t>
+  </si>
+  <si>
+    <t>ORG-099</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>ORG-102</t>
+  </si>
+  <si>
+    <t>SSR spécialisé neuro</t>
+  </si>
+  <si>
+    <t>ORG-103</t>
+  </si>
+  <si>
+    <t>SSR spécialisé gériatrie</t>
+  </si>
+  <si>
+    <t>ORG-104</t>
+  </si>
+  <si>
+    <t>SSR polyvalent</t>
+  </si>
+  <si>
+    <t>ORG-114</t>
+  </si>
+  <si>
+    <t>Proposition de traitement (dont ajustement et surveillance)</t>
+  </si>
+  <si>
+    <t>ORG-115</t>
+  </si>
+  <si>
+    <t>Recours</t>
+  </si>
+  <si>
+    <t>ORG-116</t>
+  </si>
+  <si>
+    <t>Pédiatrie</t>
+  </si>
+  <si>
+    <t>ORG-117</t>
+  </si>
+  <si>
+    <t>RCP Appareil - Organes</t>
+  </si>
+  <si>
+    <t>ORG-118</t>
+  </si>
+  <si>
+    <t>Appareil concerné</t>
+  </si>
+  <si>
+    <t>ORG-119</t>
+  </si>
+  <si>
+    <t>Organe</t>
+  </si>
+  <si>
+    <t>ORG-120</t>
+  </si>
+  <si>
+    <t>Passage en RCP recours</t>
+  </si>
+  <si>
+    <t>ORG-121</t>
+  </si>
+  <si>
+    <t>Evaluation Oncogériatrique</t>
+  </si>
+  <si>
+    <t>ORG-122</t>
+  </si>
+  <si>
+    <t>Consultation génétique</t>
+  </si>
+  <si>
+    <t>ORG-125</t>
+  </si>
+  <si>
+    <t>Quorum RCP</t>
+  </si>
+  <si>
+    <t>ORG-126</t>
+  </si>
+  <si>
+    <t>Quorum atteint</t>
+  </si>
+  <si>
+    <t>ORG-127</t>
+  </si>
+  <si>
+    <t>Statut du cas présenté</t>
+  </si>
+  <si>
+    <t>ORG-128</t>
+  </si>
+  <si>
+    <t>Cas enregistré</t>
+  </si>
+  <si>
+    <t>ORG-129</t>
+  </si>
+  <si>
+    <t>Oncogénétique</t>
+  </si>
+  <si>
+    <t>ORG-130</t>
+  </si>
+  <si>
+    <t>Oncogériatrie</t>
+  </si>
+  <si>
+    <t>ORG-132</t>
+  </si>
+  <si>
+    <t>RCP Transversale et de soins de support</t>
+  </si>
+  <si>
+    <t>ORG-133</t>
+  </si>
+  <si>
+    <t>Quorum non atteint</t>
+  </si>
+  <si>
+    <t>ORG-134</t>
+  </si>
+  <si>
+    <t>Cas discuté</t>
+  </si>
+  <si>
+    <t>ORG-135</t>
+  </si>
+  <si>
+    <t>Session RCP et inscription</t>
+  </si>
+  <si>
+    <t>ORG-136</t>
+  </si>
+  <si>
+    <t>Médecin coordonateur de session</t>
+  </si>
+  <si>
+    <t>ORG-137</t>
+  </si>
+  <si>
+    <t>PS participant à la session de RCP</t>
+  </si>
+  <si>
+    <t>ORG-138</t>
+  </si>
+  <si>
+    <t>Traitement/Soins</t>
+  </si>
+  <si>
+    <t>ORG-141</t>
+  </si>
+  <si>
+    <t>Unité Kangourou</t>
+  </si>
+  <si>
+    <t>ORG-143</t>
+  </si>
+  <si>
+    <t>Réanimation/soins intentifs</t>
+  </si>
+  <si>
+    <t>ORG-145</t>
+  </si>
+  <si>
+    <t>Service réadaptation</t>
+  </si>
+  <si>
+    <t>ORG-146</t>
+  </si>
+  <si>
+    <t>Psychiatrie</t>
+  </si>
+  <si>
+    <t>ORG-147</t>
+  </si>
+  <si>
+    <t>Établissement de santé de moyen ou long séjour</t>
+  </si>
+  <si>
+    <t>ORG-148</t>
+  </si>
+  <si>
+    <t>Établissement ou service de soins de suite</t>
+  </si>
+  <si>
+    <t>ORG-149</t>
+  </si>
+  <si>
+    <t>Établissement d’hébergement de personnes handicapées</t>
+  </si>
+  <si>
+    <t>ORG-150</t>
+  </si>
+  <si>
+    <t>Institution psychiatrique</t>
+  </si>
+  <si>
+    <t>ORG-151</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>ORG-152</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>ORG-153</t>
+  </si>
+  <si>
+    <t>SAMU, SMUR terrestre</t>
+  </si>
+  <si>
+    <t>ORG-154</t>
+  </si>
+  <si>
+    <t>Ambulance publique</t>
+  </si>
+  <si>
+    <t>ORG-155</t>
+  </si>
+  <si>
+    <t>Ambulance privée</t>
+  </si>
+  <si>
+    <t>ORG-156</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>ORG-157</t>
+  </si>
+  <si>
+    <t>Moyens personnels</t>
+  </si>
+  <si>
+    <t>ORG-158</t>
+  </si>
+  <si>
+    <t>SAMU, SMUR Hélicoptère</t>
+  </si>
+  <si>
+    <t>ORG-159</t>
+  </si>
+  <si>
+    <t>Pompier</t>
+  </si>
+  <si>
+    <t>ORG-160</t>
+  </si>
+  <si>
+    <t>VSL</t>
+  </si>
+  <si>
+    <t>ORG-162</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>ORG-163</t>
+  </si>
+  <si>
+    <t>Consultation de spécialité</t>
+  </si>
+  <si>
+    <t>ORG-165</t>
+  </si>
+  <si>
+    <t>Séjour de répit</t>
+  </si>
+  <si>
+    <t>ORG-170</t>
+  </si>
+  <si>
+    <t>Site Maladie rare</t>
+  </si>
+  <si>
+    <t>ORG-171</t>
+  </si>
+  <si>
+    <t>Prise en charge des conséquences des tumeurs cérébrales et de leurs traitements</t>
+  </si>
+  <si>
+    <t>ORG-172</t>
+  </si>
+  <si>
+    <t>Exécutant</t>
+  </si>
+  <si>
+    <t>ORG-173</t>
+  </si>
+  <si>
+    <t>Projet de grossesse</t>
+  </si>
+  <si>
+    <t>ORG-174</t>
+  </si>
+  <si>
+    <t>Continuité de la scolarité</t>
+  </si>
+  <si>
+    <t>ORG-175</t>
+  </si>
+  <si>
+    <t>Activité physique adaptée</t>
+  </si>
+  <si>
+    <t>ORG-176</t>
+  </si>
+  <si>
+    <t>Conseil d’hygiène de vie</t>
+  </si>
+  <si>
+    <t>ORG-177</t>
   </si>
   <si>
     <t>Établissement de santé de référence</t>
-  </si>
-  <si>
-    <t>ORG-055</t>
-  </si>
-  <si>
-    <t>Centre d'hébergement</t>
-  </si>
-  <si>
-    <t>ORG-056</t>
-  </si>
-  <si>
-    <t>Structure(s) de coordination ville-hôpital</t>
-  </si>
-  <si>
-    <t>ORG-057</t>
-  </si>
-  <si>
-    <t>Organisme social et de maintien dans l'emploi</t>
-  </si>
-  <si>
-    <t>ORG-059</t>
-  </si>
-  <si>
-    <t>Lieu d'administration</t>
-  </si>
-  <si>
-    <t>ORG-060</t>
-  </si>
-  <si>
-    <t>Lieu de prise en charge en oncogératrie</t>
-  </si>
-  <si>
-    <t>ORG-061</t>
-  </si>
-  <si>
-    <t>Lieu des mesures de préservation de la fertilité</t>
-  </si>
-  <si>
-    <t>ORG-062</t>
-  </si>
-  <si>
-    <t>Structure(s) de soutien et d'information</t>
-  </si>
-  <si>
-    <t>ORG-063</t>
-  </si>
-  <si>
-    <t>Acte ou intervention prévu ou à programmer</t>
-  </si>
-  <si>
-    <t>ORG-064</t>
-  </si>
-  <si>
-    <t>Demande d'examen ou de suivi</t>
-  </si>
-  <si>
-    <t>ORG-065</t>
-  </si>
-  <si>
-    <t>Suites à donner d'ordre médico-social</t>
-  </si>
-  <si>
-    <t>ORG-070</t>
-  </si>
-  <si>
-    <t>Modalité d'entrée</t>
-  </si>
-  <si>
-    <t>ORG-074</t>
-  </si>
-  <si>
-    <t>Modalité de sortie</t>
-  </si>
-  <si>
-    <t>ORG-075</t>
-  </si>
-  <si>
-    <t>Activité professionnelle</t>
-  </si>
-  <si>
-    <t>ORG-077</t>
-  </si>
-  <si>
-    <t>Hospitalisation (y compris à domicile)</t>
-  </si>
-  <si>
-    <t>ORG-079</t>
-  </si>
-  <si>
-    <t>Nombre total d'échographies</t>
-  </si>
-  <si>
-    <t>ORG-080</t>
-  </si>
-  <si>
-    <t>Echographie morphologique</t>
-  </si>
-  <si>
-    <t>ORG-081</t>
-  </si>
-  <si>
-    <t>Type de transfert</t>
-  </si>
-  <si>
-    <t>ORG-085</t>
-  </si>
-  <si>
-    <t>Demande de surveillance médicale particulière</t>
-  </si>
-  <si>
-    <t>ORG-086</t>
-  </si>
-  <si>
-    <t>Motif d'hospitalisation</t>
-  </si>
-  <si>
-    <t>ORG-087</t>
-  </si>
-  <si>
-    <t>Nombre d'hospitalisations</t>
-  </si>
-  <si>
-    <t>ORG-088</t>
-  </si>
-  <si>
-    <t>Nombre d'hospitalisations depuis le 9ème mois</t>
-  </si>
-  <si>
-    <t>ORG-089</t>
-  </si>
-  <si>
-    <t>Nombre d'hospitalisations après le 9ème mois</t>
-  </si>
-  <si>
-    <t>ORG-092</t>
-  </si>
-  <si>
-    <t>Nombre d'hospitalisations en période néonatale</t>
-  </si>
-  <si>
-    <t>ORG-094</t>
-  </si>
-  <si>
-    <t>Nombre d'hospitalisations après la période néonatale</t>
-  </si>
-  <si>
-    <t>ORG-095</t>
-  </si>
-  <si>
-    <t>Type morphologique</t>
-  </si>
-  <si>
-    <t>ORG-097</t>
-  </si>
-  <si>
-    <t>Correspondant</t>
-  </si>
-  <si>
-    <t>ORG-098</t>
-  </si>
-  <si>
-    <t>Lieu du transfert</t>
-  </si>
-  <si>
-    <t>ORG-099</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
-    <t>ORG-102</t>
-  </si>
-  <si>
-    <t>SSR spécialisé neuro</t>
-  </si>
-  <si>
-    <t>ORG-103</t>
-  </si>
-  <si>
-    <t>SSR spécialisé gériatrie</t>
-  </si>
-  <si>
-    <t>ORG-104</t>
-  </si>
-  <si>
-    <t>SSR polyvalent</t>
-  </si>
-  <si>
-    <t>ORG-109</t>
-  </si>
-  <si>
-    <t>Caisse d'assurance de retraite et santé au travail (CARSAT)</t>
-  </si>
-  <si>
-    <t>ORG-110</t>
-  </si>
-  <si>
-    <t>Service d'appui au maintien dans l'emploi des travailleurs handicapés (SAMETH)</t>
-  </si>
-  <si>
-    <t>ORG-114</t>
-  </si>
-  <si>
-    <t>Proposition de traitement (dont ajustement et surveillance)</t>
-  </si>
-  <si>
-    <t>ORG-115</t>
-  </si>
-  <si>
-    <t>Recours</t>
-  </si>
-  <si>
-    <t>ORG-116</t>
-  </si>
-  <si>
-    <t>Pédiatrie</t>
-  </si>
-  <si>
-    <t>ORG-117</t>
-  </si>
-  <si>
-    <t>RCP Appareil - Organes</t>
-  </si>
-  <si>
-    <t>ORG-118</t>
-  </si>
-  <si>
-    <t>Appareil concerné</t>
-  </si>
-  <si>
-    <t>ORG-119</t>
-  </si>
-  <si>
-    <t>Organe</t>
-  </si>
-  <si>
-    <t>ORG-120</t>
-  </si>
-  <si>
-    <t>Passage en RCP recours</t>
-  </si>
-  <si>
-    <t>ORG-121</t>
-  </si>
-  <si>
-    <t>Evaluation Oncogériatrique</t>
-  </si>
-  <si>
-    <t>ORG-122</t>
-  </si>
-  <si>
-    <t>Consultation génétique</t>
-  </si>
-  <si>
-    <t>ORG-125</t>
-  </si>
-  <si>
-    <t>Quorum RCP</t>
-  </si>
-  <si>
-    <t>ORG-126</t>
-  </si>
-  <si>
-    <t>Quorum atteint</t>
-  </si>
-  <si>
-    <t>ORG-127</t>
-  </si>
-  <si>
-    <t>Statut du cas présenté</t>
-  </si>
-  <si>
-    <t>ORG-128</t>
-  </si>
-  <si>
-    <t>Cas enregistré</t>
-  </si>
-  <si>
-    <t>ORG-129</t>
-  </si>
-  <si>
-    <t>Oncogénétique</t>
-  </si>
-  <si>
-    <t>ORG-130</t>
-  </si>
-  <si>
-    <t>Oncogériatrie</t>
-  </si>
-  <si>
-    <t>ORG-132</t>
-  </si>
-  <si>
-    <t>RCP Transversale et de soins de support</t>
-  </si>
-  <si>
-    <t>ORG-133</t>
-  </si>
-  <si>
-    <t>Quorum non atteint</t>
-  </si>
-  <si>
-    <t>ORG-134</t>
-  </si>
-  <si>
-    <t>Cas discuté</t>
-  </si>
-  <si>
-    <t>ORG-135</t>
-  </si>
-  <si>
-    <t>Session RCP et inscription</t>
-  </si>
-  <si>
-    <t>ORG-136</t>
-  </si>
-  <si>
-    <t>Médecin coordonateur de session</t>
-  </si>
-  <si>
-    <t>ORG-137</t>
-  </si>
-  <si>
-    <t>PS participant à la session de RCP</t>
-  </si>
-  <si>
-    <t>ORG-138</t>
-  </si>
-  <si>
-    <t>Traitement/Soins</t>
-  </si>
-  <si>
-    <t>ORG-141</t>
-  </si>
-  <si>
-    <t>Unité Kangourou</t>
-  </si>
-  <si>
-    <t>ORG-143</t>
-  </si>
-  <si>
-    <t>Réanimation/soins intentifs</t>
-  </si>
-  <si>
-    <t>ORG-145</t>
-  </si>
-  <si>
-    <t>Service réadaptation</t>
-  </si>
-  <si>
-    <t>ORG-146</t>
-  </si>
-  <si>
-    <t>Psychiatrie</t>
-  </si>
-  <si>
-    <t>ORG-147</t>
-  </si>
-  <si>
-    <t>Établissement de santé de moyen ou long séjour</t>
-  </si>
-  <si>
-    <t>ORG-148</t>
-  </si>
-  <si>
-    <t>Établissement ou service de soins de suite</t>
-  </si>
-  <si>
-    <t>ORG-149</t>
-  </si>
-  <si>
-    <t>Établissement d’hébergement de personnes handicapées</t>
-  </si>
-  <si>
-    <t>ORG-150</t>
-  </si>
-  <si>
-    <t>Institution psychiatrique</t>
-  </si>
-  <si>
-    <t>ORG-151</t>
-  </si>
-  <si>
-    <t>Prison</t>
-  </si>
-  <si>
-    <t>ORG-152</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>ORG-153</t>
-  </si>
-  <si>
-    <t>SAMU, SMUR terrestre</t>
-  </si>
-  <si>
-    <t>ORG-154</t>
-  </si>
-  <si>
-    <t>Ambulance publique</t>
-  </si>
-  <si>
-    <t>ORG-155</t>
-  </si>
-  <si>
-    <t>Ambulance privée</t>
-  </si>
-  <si>
-    <t>ORG-156</t>
-  </si>
-  <si>
-    <t>Taxi</t>
-  </si>
-  <si>
-    <t>ORG-157</t>
-  </si>
-  <si>
-    <t>Moyens personnels</t>
-  </si>
-  <si>
-    <t>ORG-158</t>
-  </si>
-  <si>
-    <t>SAMU, SMUR Hélicoptère</t>
-  </si>
-  <si>
-    <t>ORG-159</t>
-  </si>
-  <si>
-    <t>Pompier</t>
-  </si>
-  <si>
-    <t>ORG-160</t>
-  </si>
-  <si>
-    <t>VSL</t>
-  </si>
-  <si>
-    <t>ORG-162</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>ORG-163</t>
-  </si>
-  <si>
-    <t>Consultation de spécialité</t>
-  </si>
-  <si>
-    <t>ORG-165</t>
-  </si>
-  <si>
-    <t>Séjour de répit</t>
-  </si>
-  <si>
-    <t>ORG-170</t>
-  </si>
-  <si>
-    <t>Site Maladie rare</t>
-  </si>
-  <si>
-    <t>ORG-171</t>
-  </si>
-  <si>
-    <t>Prise en charge des conséquences des tumeurs cérébrales et de leurs traitements</t>
-  </si>
-  <si>
-    <t>ORG-172</t>
-  </si>
-  <si>
-    <t>Exécutant</t>
-  </si>
-  <si>
-    <t>ORG-173</t>
-  </si>
-  <si>
-    <t>Projet de grossesse</t>
-  </si>
-  <si>
-    <t>ORG-174</t>
-  </si>
-  <si>
-    <t>Continuité de la scolarité</t>
-  </si>
-  <si>
-    <t>ORG-175</t>
-  </si>
-  <si>
-    <t>Activité physique adaptée</t>
-  </si>
-  <si>
-    <t>ORG-176</t>
-  </si>
-  <si>
-    <t>Conseil d’hygiène de vie</t>
-  </si>
-  <si>
-    <t>ORG-177</t>
   </si>
   <si>
     <t>ORG-178</t>
@@ -9991,7 +9988,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1574"/>
+  <dimension ref="A1:D1573"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12431,7 +12428,7 @@
         <v>459</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="D203" s="2"/>
     </row>
@@ -12440,10 +12437,10 @@
         <v>57</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D204" s="2"/>
     </row>
@@ -12452,10 +12449,10 @@
         <v>57</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>463</v>
+        <v>37</v>
       </c>
       <c r="D205" s="2"/>
     </row>
@@ -14255,7 +14252,7 @@
         <v>762</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>93</v>
+        <v>763</v>
       </c>
       <c r="D355" s="2"/>
     </row>
@@ -14264,10 +14261,10 @@
         <v>57</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D356" s="2"/>
     </row>
@@ -14276,10 +14273,10 @@
         <v>57</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>766</v>
+        <v>93</v>
       </c>
       <c r="D357" s="2"/>
     </row>
@@ -16415,7 +16412,7 @@
         <v>1121</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>200</v>
+        <v>1122</v>
       </c>
       <c r="D535" s="2"/>
     </row>
@@ -16424,10 +16421,10 @@
         <v>57</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D536" s="2"/>
     </row>
@@ -16436,10 +16433,10 @@
         <v>57</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>1125</v>
+        <v>200</v>
       </c>
       <c r="D537" s="2"/>
     </row>
@@ -21047,7 +21044,7 @@
         <v>1892</v>
       </c>
       <c r="C921" t="s" s="2">
-        <v>561</v>
+        <v>1893</v>
       </c>
       <c r="D921" s="2"/>
     </row>
@@ -21056,10 +21053,10 @@
         <v>57</v>
       </c>
       <c r="B922" t="s" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C922" t="s" s="2">
-        <v>563</v>
+        <v>1895</v>
       </c>
       <c r="D922" s="2"/>
     </row>
@@ -21068,10 +21065,10 @@
         <v>57</v>
       </c>
       <c r="B923" t="s" s="2">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="C923" t="s" s="2">
-        <v>1895</v>
+        <v>565</v>
       </c>
       <c r="D923" s="2"/>
     </row>
@@ -21080,10 +21077,10 @@
         <v>57</v>
       </c>
       <c r="B924" t="s" s="2">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C924" t="s" s="2">
-        <v>1897</v>
+        <v>567</v>
       </c>
       <c r="D924" s="2"/>
     </row>
@@ -21587,7 +21584,7 @@
         <v>1980</v>
       </c>
       <c r="C966" t="s" s="2">
-        <v>1935</v>
+        <v>1981</v>
       </c>
       <c r="D966" s="2"/>
     </row>
@@ -21596,10 +21593,10 @@
         <v>57</v>
       </c>
       <c r="B967" t="s" s="2">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C967" t="s" s="2">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="D967" s="2"/>
     </row>
@@ -21608,10 +21605,10 @@
         <v>57</v>
       </c>
       <c r="B968" t="s" s="2">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C968" t="s" s="2">
-        <v>1984</v>
+        <v>1939</v>
       </c>
       <c r="D968" s="2"/>
     </row>
@@ -23159,7 +23156,7 @@
         <v>2241</v>
       </c>
       <c r="C1097" t="s" s="2">
-        <v>2190</v>
+        <v>2242</v>
       </c>
       <c r="D1097" s="2"/>
     </row>
@@ -23168,10 +23165,10 @@
         <v>57</v>
       </c>
       <c r="B1098" t="s" s="2">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C1098" t="s" s="2">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="D1098" s="2"/>
     </row>
@@ -23180,10 +23177,10 @@
         <v>57</v>
       </c>
       <c r="B1099" t="s" s="2">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C1099" t="s" s="2">
-        <v>2245</v>
+        <v>2194</v>
       </c>
       <c r="D1099" s="2"/>
     </row>
@@ -25439,7 +25436,7 @@
         <v>2620</v>
       </c>
       <c r="C1287" t="s" s="2">
-        <v>2573</v>
+        <v>2621</v>
       </c>
       <c r="D1287" s="2"/>
     </row>
@@ -25448,10 +25445,10 @@
         <v>57</v>
       </c>
       <c r="B1288" t="s" s="2">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="C1288" t="s" s="2">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="D1288" s="2"/>
     </row>
@@ -25460,10 +25457,10 @@
         <v>57</v>
       </c>
       <c r="B1289" t="s" s="2">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="C1289" t="s" s="2">
-        <v>2624</v>
+        <v>2577</v>
       </c>
       <c r="D1289" s="2"/>
     </row>
@@ -25895,7 +25892,7 @@
         <v>2695</v>
       </c>
       <c r="C1325" t="s" s="2">
-        <v>294</v>
+        <v>2696</v>
       </c>
       <c r="D1325" s="2"/>
     </row>
@@ -25904,10 +25901,10 @@
         <v>57</v>
       </c>
       <c r="B1326" t="s" s="2">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C1326" t="s" s="2">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="D1326" s="2"/>
     </row>
@@ -25916,10 +25913,10 @@
         <v>57</v>
       </c>
       <c r="B1327" t="s" s="2">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="C1327" t="s" s="2">
-        <v>2699</v>
+        <v>298</v>
       </c>
       <c r="D1327" s="2"/>
     </row>
@@ -26051,7 +26048,7 @@
         <v>2720</v>
       </c>
       <c r="C1338" t="s" s="2">
-        <v>59</v>
+        <v>2721</v>
       </c>
       <c r="D1338" s="2"/>
     </row>
@@ -26060,10 +26057,10 @@
         <v>57</v>
       </c>
       <c r="B1339" t="s" s="2">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C1339" t="s" s="2">
-        <v>61</v>
+        <v>2723</v>
       </c>
       <c r="D1339" s="2"/>
     </row>
@@ -26072,10 +26069,10 @@
         <v>57</v>
       </c>
       <c r="B1340" t="s" s="2">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="C1340" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1340" s="2"/>
     </row>
@@ -26084,10 +26081,10 @@
         <v>57</v>
       </c>
       <c r="B1341" t="s" s="2">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="C1341" t="s" s="2">
-        <v>2724</v>
+        <v>61</v>
       </c>
       <c r="D1341" s="2"/>
     </row>
@@ -26096,10 +26093,10 @@
         <v>57</v>
       </c>
       <c r="B1342" t="s" s="2">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C1342" t="s" s="2">
-        <v>2726</v>
+        <v>63</v>
       </c>
       <c r="D1342" s="2"/>
     </row>
@@ -27743,7 +27740,7 @@
         <v>2999</v>
       </c>
       <c r="C1479" t="s" s="2">
-        <v>2832</v>
+        <v>3000</v>
       </c>
       <c r="D1479" s="2"/>
     </row>
@@ -27752,10 +27749,10 @@
         <v>57</v>
       </c>
       <c r="B1480" t="s" s="2">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C1480" t="s" s="2">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D1480" s="2"/>
     </row>
@@ -27764,10 +27761,10 @@
         <v>57</v>
       </c>
       <c r="B1481" t="s" s="2">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="C1481" t="s" s="2">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="D1481" s="2"/>
     </row>
@@ -27776,10 +27773,10 @@
         <v>57</v>
       </c>
       <c r="B1482" t="s" s="2">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C1482" t="s" s="2">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D1482" s="2"/>
     </row>
@@ -27788,10 +27785,10 @@
         <v>57</v>
       </c>
       <c r="B1483" t="s" s="2">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C1483" t="s" s="2">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="D1483" s="2"/>
     </row>
@@ -27800,10 +27797,10 @@
         <v>57</v>
       </c>
       <c r="B1484" t="s" s="2">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="C1484" t="s" s="2">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="D1484" s="2"/>
     </row>
@@ -27812,10 +27809,10 @@
         <v>57</v>
       </c>
       <c r="B1485" t="s" s="2">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C1485" t="s" s="2">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D1485" s="2"/>
     </row>
@@ -27824,10 +27821,10 @@
         <v>57</v>
       </c>
       <c r="B1486" t="s" s="2">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="C1486" t="s" s="2">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="D1486" s="2"/>
     </row>
@@ -27836,10 +27833,10 @@
         <v>57</v>
       </c>
       <c r="B1487" t="s" s="2">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C1487" t="s" s="2">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D1487" s="2"/>
     </row>
@@ -27848,10 +27845,10 @@
         <v>57</v>
       </c>
       <c r="B1488" t="s" s="2">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C1488" t="s" s="2">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="D1488" s="2"/>
     </row>
@@ -27860,10 +27857,10 @@
         <v>57</v>
       </c>
       <c r="B1489" t="s" s="2">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="C1489" t="s" s="2">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="D1489" s="2"/>
     </row>
@@ -27872,10 +27869,10 @@
         <v>57</v>
       </c>
       <c r="B1490" t="s" s="2">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C1490" t="s" s="2">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D1490" s="2"/>
     </row>
@@ -27884,10 +27881,10 @@
         <v>57</v>
       </c>
       <c r="B1491" t="s" s="2">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C1491" t="s" s="2">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="D1491" s="2"/>
     </row>
@@ -27896,10 +27893,10 @@
         <v>57</v>
       </c>
       <c r="B1492" t="s" s="2">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="C1492" t="s" s="2">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="D1492" s="2"/>
     </row>
@@ -27908,10 +27905,10 @@
         <v>57</v>
       </c>
       <c r="B1493" t="s" s="2">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C1493" t="s" s="2">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D1493" s="2"/>
     </row>
@@ -27920,10 +27917,10 @@
         <v>57</v>
       </c>
       <c r="B1494" t="s" s="2">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C1494" t="s" s="2">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="D1494" s="2"/>
     </row>
@@ -27932,10 +27929,10 @@
         <v>57</v>
       </c>
       <c r="B1495" t="s" s="2">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C1495" t="s" s="2">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D1495" s="2"/>
     </row>
@@ -27944,10 +27941,10 @@
         <v>57</v>
       </c>
       <c r="B1496" t="s" s="2">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C1496" t="s" s="2">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D1496" s="2"/>
     </row>
@@ -27956,10 +27953,10 @@
         <v>57</v>
       </c>
       <c r="B1497" t="s" s="2">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C1497" t="s" s="2">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="D1497" s="2"/>
     </row>
@@ -27968,10 +27965,10 @@
         <v>57</v>
       </c>
       <c r="B1498" t="s" s="2">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="C1498" t="s" s="2">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="D1498" s="2"/>
     </row>
@@ -27980,10 +27977,10 @@
         <v>57</v>
       </c>
       <c r="B1499" t="s" s="2">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C1499" t="s" s="2">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="D1499" s="2"/>
     </row>
@@ -27992,10 +27989,10 @@
         <v>57</v>
       </c>
       <c r="B1500" t="s" s="2">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C1500" t="s" s="2">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D1500" s="2"/>
     </row>
@@ -28004,10 +28001,10 @@
         <v>57</v>
       </c>
       <c r="B1501" t="s" s="2">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C1501" t="s" s="2">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D1501" s="2"/>
     </row>
@@ -28016,10 +28013,10 @@
         <v>57</v>
       </c>
       <c r="B1502" t="s" s="2">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="C1502" t="s" s="2">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D1502" s="2"/>
     </row>
@@ -28028,10 +28025,10 @@
         <v>57</v>
       </c>
       <c r="B1503" t="s" s="2">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C1503" t="s" s="2">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D1503" s="2"/>
     </row>
@@ -28040,10 +28037,10 @@
         <v>57</v>
       </c>
       <c r="B1504" t="s" s="2">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C1504" t="s" s="2">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D1504" s="2"/>
     </row>
@@ -28052,10 +28049,10 @@
         <v>57</v>
       </c>
       <c r="B1505" t="s" s="2">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C1505" t="s" s="2">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D1505" s="2"/>
     </row>
@@ -28064,10 +28061,10 @@
         <v>57</v>
       </c>
       <c r="B1506" t="s" s="2">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C1506" t="s" s="2">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D1506" s="2"/>
     </row>
@@ -28076,10 +28073,10 @@
         <v>57</v>
       </c>
       <c r="B1507" t="s" s="2">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C1507" t="s" s="2">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D1507" s="2"/>
     </row>
@@ -28088,10 +28085,10 @@
         <v>57</v>
       </c>
       <c r="B1508" t="s" s="2">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="C1508" t="s" s="2">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="D1508" s="2"/>
     </row>
@@ -28100,10 +28097,10 @@
         <v>57</v>
       </c>
       <c r="B1509" t="s" s="2">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C1509" t="s" s="2">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D1509" s="2"/>
     </row>
@@ -28112,10 +28109,10 @@
         <v>57</v>
       </c>
       <c r="B1510" t="s" s="2">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C1510" t="s" s="2">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="D1510" s="2"/>
     </row>
@@ -28124,10 +28121,10 @@
         <v>57</v>
       </c>
       <c r="B1511" t="s" s="2">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="C1511" t="s" s="2">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="D1511" s="2"/>
     </row>
@@ -28136,10 +28133,10 @@
         <v>57</v>
       </c>
       <c r="B1512" t="s" s="2">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C1512" t="s" s="2">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D1512" s="2"/>
     </row>
@@ -28148,10 +28145,10 @@
         <v>57</v>
       </c>
       <c r="B1513" t="s" s="2">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C1513" t="s" s="2">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="D1513" s="2"/>
     </row>
@@ -28160,10 +28157,10 @@
         <v>57</v>
       </c>
       <c r="B1514" t="s" s="2">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C1514" t="s" s="2">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D1514" s="2"/>
     </row>
@@ -28172,10 +28169,10 @@
         <v>57</v>
       </c>
       <c r="B1515" t="s" s="2">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C1515" t="s" s="2">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D1515" s="2"/>
     </row>
@@ -28184,10 +28181,10 @@
         <v>57</v>
       </c>
       <c r="B1516" t="s" s="2">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C1516" t="s" s="2">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D1516" s="2"/>
     </row>
@@ -28196,10 +28193,10 @@
         <v>57</v>
       </c>
       <c r="B1517" t="s" s="2">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="C1517" t="s" s="2">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="D1517" s="2"/>
     </row>
@@ -28208,10 +28205,10 @@
         <v>57</v>
       </c>
       <c r="B1518" t="s" s="2">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C1518" t="s" s="2">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D1518" s="2"/>
     </row>
@@ -28220,10 +28217,10 @@
         <v>57</v>
       </c>
       <c r="B1519" t="s" s="2">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C1519" t="s" s="2">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D1519" s="2"/>
     </row>
@@ -28232,10 +28229,10 @@
         <v>57</v>
       </c>
       <c r="B1520" t="s" s="2">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C1520" t="s" s="2">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="D1520" s="2"/>
     </row>
@@ -28244,10 +28241,10 @@
         <v>57</v>
       </c>
       <c r="B1521" t="s" s="2">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C1521" t="s" s="2">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D1521" s="2"/>
     </row>
@@ -28256,10 +28253,10 @@
         <v>57</v>
       </c>
       <c r="B1522" t="s" s="2">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C1522" t="s" s="2">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D1522" s="2"/>
     </row>
@@ -28268,10 +28265,10 @@
         <v>57</v>
       </c>
       <c r="B1523" t="s" s="2">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C1523" t="s" s="2">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="D1523" s="2"/>
     </row>
@@ -28280,10 +28277,10 @@
         <v>57</v>
       </c>
       <c r="B1524" t="s" s="2">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C1524" t="s" s="2">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D1524" s="2"/>
     </row>
@@ -28292,10 +28289,10 @@
         <v>57</v>
       </c>
       <c r="B1525" t="s" s="2">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C1525" t="s" s="2">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D1525" s="2"/>
     </row>
@@ -28304,10 +28301,10 @@
         <v>57</v>
       </c>
       <c r="B1526" t="s" s="2">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C1526" t="s" s="2">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="D1526" s="2"/>
     </row>
@@ -28316,10 +28313,10 @@
         <v>57</v>
       </c>
       <c r="B1527" t="s" s="2">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C1527" t="s" s="2">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="D1527" s="2"/>
     </row>
@@ -28328,10 +28325,10 @@
         <v>57</v>
       </c>
       <c r="B1528" t="s" s="2">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C1528" t="s" s="2">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="D1528" s="2"/>
     </row>
@@ -28340,10 +28337,10 @@
         <v>57</v>
       </c>
       <c r="B1529" t="s" s="2">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C1529" t="s" s="2">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="D1529" s="2"/>
     </row>
@@ -28352,10 +28349,10 @@
         <v>57</v>
       </c>
       <c r="B1530" t="s" s="2">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C1530" t="s" s="2">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="D1530" s="2"/>
     </row>
@@ -28364,10 +28361,10 @@
         <v>57</v>
       </c>
       <c r="B1531" t="s" s="2">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C1531" t="s" s="2">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D1531" s="2"/>
     </row>
@@ -28376,10 +28373,10 @@
         <v>57</v>
       </c>
       <c r="B1532" t="s" s="2">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="C1532" t="s" s="2">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="D1532" s="2"/>
     </row>
@@ -28388,10 +28385,10 @@
         <v>57</v>
       </c>
       <c r="B1533" t="s" s="2">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="C1533" t="s" s="2">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="D1533" s="2"/>
     </row>
@@ -28400,10 +28397,10 @@
         <v>57</v>
       </c>
       <c r="B1534" t="s" s="2">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="C1534" t="s" s="2">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="D1534" s="2"/>
     </row>
@@ -28412,10 +28409,10 @@
         <v>57</v>
       </c>
       <c r="B1535" t="s" s="2">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C1535" t="s" s="2">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="D1535" s="2"/>
     </row>
@@ -28424,10 +28421,10 @@
         <v>57</v>
       </c>
       <c r="B1536" t="s" s="2">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C1536" t="s" s="2">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D1536" s="2"/>
     </row>
@@ -28436,10 +28433,10 @@
         <v>57</v>
       </c>
       <c r="B1537" t="s" s="2">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C1537" t="s" s="2">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="D1537" s="2"/>
     </row>
@@ -28448,10 +28445,10 @@
         <v>57</v>
       </c>
       <c r="B1538" t="s" s="2">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="C1538" t="s" s="2">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D1538" s="2"/>
     </row>
@@ -28460,10 +28457,10 @@
         <v>57</v>
       </c>
       <c r="B1539" t="s" s="2">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C1539" t="s" s="2">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D1539" s="2"/>
     </row>
@@ -28472,10 +28469,10 @@
         <v>57</v>
       </c>
       <c r="B1540" t="s" s="2">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C1540" t="s" s="2">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D1540" s="2"/>
     </row>
@@ -28484,10 +28481,10 @@
         <v>57</v>
       </c>
       <c r="B1541" t="s" s="2">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C1541" t="s" s="2">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="D1541" s="2"/>
     </row>
@@ -28496,10 +28493,10 @@
         <v>57</v>
       </c>
       <c r="B1542" t="s" s="2">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1542" t="s" s="2">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D1542" s="2"/>
     </row>
@@ -28508,10 +28505,10 @@
         <v>57</v>
       </c>
       <c r="B1543" t="s" s="2">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C1543" t="s" s="2">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D1543" s="2"/>
     </row>
@@ -28520,10 +28517,10 @@
         <v>57</v>
       </c>
       <c r="B1544" t="s" s="2">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C1544" t="s" s="2">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="D1544" s="2"/>
     </row>
@@ -28532,10 +28529,10 @@
         <v>57</v>
       </c>
       <c r="B1545" t="s" s="2">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C1545" t="s" s="2">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D1545" s="2"/>
     </row>
@@ -28544,10 +28541,10 @@
         <v>57</v>
       </c>
       <c r="B1546" t="s" s="2">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C1546" t="s" s="2">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D1546" s="2"/>
     </row>
@@ -28556,10 +28553,10 @@
         <v>57</v>
       </c>
       <c r="B1547" t="s" s="2">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C1547" t="s" s="2">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="D1547" s="2"/>
     </row>
@@ -28568,10 +28565,10 @@
         <v>57</v>
       </c>
       <c r="B1548" t="s" s="2">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C1548" t="s" s="2">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D1548" s="2"/>
     </row>
@@ -28580,10 +28577,10 @@
         <v>57</v>
       </c>
       <c r="B1549" t="s" s="2">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="C1549" t="s" s="2">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="D1549" s="2"/>
     </row>
@@ -28592,10 +28589,10 @@
         <v>57</v>
       </c>
       <c r="B1550" t="s" s="2">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C1550" t="s" s="2">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="D1550" s="2"/>
     </row>
@@ -28604,10 +28601,10 @@
         <v>57</v>
       </c>
       <c r="B1551" t="s" s="2">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C1551" t="s" s="2">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D1551" s="2"/>
     </row>
@@ -28616,10 +28613,10 @@
         <v>57</v>
       </c>
       <c r="B1552" t="s" s="2">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C1552" t="s" s="2">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D1552" s="2"/>
     </row>
@@ -28628,10 +28625,10 @@
         <v>57</v>
       </c>
       <c r="B1553" t="s" s="2">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="C1553" t="s" s="2">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="D1553" s="2"/>
     </row>
@@ -28640,10 +28637,10 @@
         <v>57</v>
       </c>
       <c r="B1554" t="s" s="2">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C1554" t="s" s="2">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D1554" s="2"/>
     </row>
@@ -28652,10 +28649,10 @@
         <v>57</v>
       </c>
       <c r="B1555" t="s" s="2">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="C1555" t="s" s="2">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="D1555" s="2"/>
     </row>
@@ -28664,10 +28661,10 @@
         <v>57</v>
       </c>
       <c r="B1556" t="s" s="2">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="C1556" t="s" s="2">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="D1556" s="2"/>
     </row>
@@ -28676,10 +28673,10 @@
         <v>57</v>
       </c>
       <c r="B1557" t="s" s="2">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C1557" t="s" s="2">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="D1557" s="2"/>
     </row>
@@ -28688,10 +28685,10 @@
         <v>57</v>
       </c>
       <c r="B1558" t="s" s="2">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="C1558" t="s" s="2">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="D1558" s="2"/>
     </row>
@@ -28700,10 +28697,10 @@
         <v>57</v>
       </c>
       <c r="B1559" t="s" s="2">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C1559" t="s" s="2">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="D1559" s="2"/>
     </row>
@@ -28712,10 +28709,10 @@
         <v>57</v>
       </c>
       <c r="B1560" t="s" s="2">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C1560" t="s" s="2">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D1560" s="2"/>
     </row>
@@ -28724,10 +28721,10 @@
         <v>57</v>
       </c>
       <c r="B1561" t="s" s="2">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C1561" t="s" s="2">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="D1561" s="2"/>
     </row>
@@ -28736,10 +28733,10 @@
         <v>57</v>
       </c>
       <c r="B1562" t="s" s="2">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C1562" t="s" s="2">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="D1562" s="2"/>
     </row>
@@ -28748,10 +28745,10 @@
         <v>57</v>
       </c>
       <c r="B1563" t="s" s="2">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C1563" t="s" s="2">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="D1563" s="2"/>
     </row>
@@ -28760,10 +28757,10 @@
         <v>57</v>
       </c>
       <c r="B1564" t="s" s="2">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="C1564" t="s" s="2">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="D1564" s="2"/>
     </row>
@@ -28772,10 +28769,10 @@
         <v>57</v>
       </c>
       <c r="B1565" t="s" s="2">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C1565" t="s" s="2">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="D1565" s="2"/>
     </row>
@@ -28784,10 +28781,10 @@
         <v>57</v>
       </c>
       <c r="B1566" t="s" s="2">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C1566" t="s" s="2">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D1566" s="2"/>
     </row>
@@ -28796,10 +28793,10 @@
         <v>57</v>
       </c>
       <c r="B1567" t="s" s="2">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C1567" t="s" s="2">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="D1567" s="2"/>
     </row>
@@ -28808,10 +28805,10 @@
         <v>57</v>
       </c>
       <c r="B1568" t="s" s="2">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="C1568" t="s" s="2">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="D1568" s="2"/>
     </row>
@@ -28820,10 +28817,10 @@
         <v>57</v>
       </c>
       <c r="B1569" t="s" s="2">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C1569" t="s" s="2">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D1569" s="2"/>
     </row>
@@ -28832,10 +28829,10 @@
         <v>57</v>
       </c>
       <c r="B1570" t="s" s="2">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="C1570" t="s" s="2">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="D1570" s="2"/>
     </row>
@@ -28844,10 +28841,10 @@
         <v>57</v>
       </c>
       <c r="B1571" t="s" s="2">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="C1571" t="s" s="2">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="D1571" s="2"/>
     </row>
@@ -28856,10 +28853,10 @@
         <v>57</v>
       </c>
       <c r="B1572" t="s" s="2">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C1572" t="s" s="2">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="D1572" s="2"/>
     </row>
@@ -28868,24 +28865,12 @@
         <v>57</v>
       </c>
       <c r="B1573" t="s" s="2">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="C1573" t="s" s="2">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="D1573" s="2"/>
-    </row>
-    <row r="1574">
-      <c r="A1574" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B1574" t="s" s="2">
-        <v>3188</v>
-      </c>
-      <c r="C1574" t="s" s="2">
-        <v>3189</v>
-      </c>
-      <c r="D1574" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
